--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2108.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2108.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.798119344248713</v>
+        <v>3.843326807022095</v>
       </c>
       <c r="B1">
-        <v>2.241969907092618</v>
+        <v>2.897255182266235</v>
       </c>
       <c r="C1">
-        <v>1.958453977122754</v>
+        <v>1.928537368774414</v>
       </c>
       <c r="D1">
-        <v>2.119708674975246</v>
+        <v>1.690407752990723</v>
       </c>
       <c r="E1">
-        <v>2.584514467597249</v>
+        <v>1.671060681343079</v>
       </c>
     </row>
   </sheetData>
